--- a/data/poc_cdr.xlsx
+++ b/data/poc_cdr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16700" tabRatio="500"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,8 +97,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -166,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,18 +248,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -279,6 +302,10 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -312,6 +339,10 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -653,43 +684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -697,13 +728,13 @@
       <c r="A2" s="2">
         <v>20140514</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>112747</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>235</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2">
@@ -712,25 +743,25 @@
       <c r="F2" s="2">
         <v>11923428108</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -738,13 +769,13 @@
       <c r="A3" s="2">
         <v>20140514</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>112748</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>234</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2">
@@ -753,25 +784,25 @@
       <c r="F3" s="2">
         <v>11923428108</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -779,13 +810,13 @@
       <c r="A4" s="2">
         <v>20140514</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>112749</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>233</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
       <c r="E4" s="2">
@@ -794,25 +825,25 @@
       <c r="F4" s="2">
         <v>11923428108</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -820,13 +851,13 @@
       <c r="A5" s="2">
         <v>20140514</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>112750</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>236</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2">
@@ -835,1897 +866,1897 @@
       <c r="F5" s="2">
         <v>11923428108</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>20140514</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>122747</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>200</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>11988556685</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>11923428108</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>20140514</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>122748</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>195</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>11988556685</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>11923428108</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>20140514</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>122749</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>216</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>11988556685</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>11923428108</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>20140514</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>122750</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>215</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>11988556685</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>11923428108</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>20140514</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>132747</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>235</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>11988556685</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>11923428108</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>20140514</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>132748</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>236</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>11988556685</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>11923428108</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>20140514</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>132819</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>233</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <v>11988556685</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>11923428108</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>20140514</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>132825</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>234</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <v>11988556685</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>11923428108</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2">
-        <f>A2+1</f>
+      <c r="A14" s="1">
+        <f t="shared" ref="A14:A25" si="0">A2+1</f>
         <v>20140515</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>112747</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>235</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2">
-        <f>A3+1</f>
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>112748</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>234</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <f>A4+1</f>
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>112749</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>233</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2">
-        <f>A5+1</f>
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>112750</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>236</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2">
-        <f>A6+1</f>
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>122747</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>200</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="2">
-        <f>A7+1</f>
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>122748</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>195</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2">
-        <f>A8+1</f>
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>122749</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>216</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="G20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <f>A9+1</f>
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>122750</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>215</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="2">
-        <f>A10+1</f>
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>132747</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>235</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="G22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="2">
-        <f>A11+1</f>
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>132748</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>236</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="G23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="2">
-        <f>A12+1</f>
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>132819</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>233</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="2">
-        <f>A13+1</f>
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>20140515</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>132825</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>234</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>11923428108</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>11988556685</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="7" t="s">
+      <c r="G25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>20140514</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>112747</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>235</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f>E2+1</f>
         <v>11988556686</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>11923428108</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>20140514</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>112748</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>234</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" ref="E27:E49" si="0">E3+1</f>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E49" si="1">E3+1</f>
         <v>11988556686</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>11923428108</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>20140514</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>112749</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>233</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
         <v>11988556686</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>11923428108</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>20140514</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>112750</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>236</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
         <v>11988556686</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>11923428108</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>20140514</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>122747</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>200</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
         <v>11988556686</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <f>F2+1</f>
         <v>11923428109</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="G30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>20140514</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>122748</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>195</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
         <v>11988556686</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31:F49" si="1">F3+1</f>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:F49" si="2">F3+1</f>
         <v>11923428109</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="4" t="s">
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>20140514</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>122749</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>216</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
         <v>11988556686</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>20140514</v>
+      </c>
+      <c r="B33" s="4">
+        <v>122750</v>
+      </c>
+      <c r="C33" s="4">
+        <v>215</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>11988556686</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>20140514</v>
+      </c>
+      <c r="B34" s="5">
+        <v>132747</v>
+      </c>
+      <c r="C34" s="5">
+        <v>235</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>11988556686</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>20140514</v>
+      </c>
+      <c r="B35" s="5">
+        <v>132748</v>
+      </c>
+      <c r="C35" s="5">
+        <v>236</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>11988556686</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>20140514</v>
+      </c>
+      <c r="B36" s="6">
+        <v>132819</v>
+      </c>
+      <c r="C36" s="6">
+        <v>233</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>11988556686</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>20140514</v>
+      </c>
+      <c r="B37" s="6">
+        <v>132825</v>
+      </c>
+      <c r="C37" s="6">
+        <v>234</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>11988556686</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:A49" si="3">A26+1</f>
+        <v>20140515</v>
+      </c>
+      <c r="B38" s="2">
+        <v>112747</v>
+      </c>
+      <c r="C38" s="2">
+        <v>235</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2">
-        <v>20140514</v>
-      </c>
-      <c r="B33" s="5">
-        <v>122750</v>
-      </c>
-      <c r="C33" s="5">
-        <v>215</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>11988556686</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B39" s="2">
+        <v>112748</v>
+      </c>
+      <c r="C39" s="2">
+        <v>234</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2">
-        <v>20140514</v>
-      </c>
-      <c r="B34" s="6">
-        <v>132747</v>
-      </c>
-      <c r="C34" s="6">
-        <v>235</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>11988556686</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B40" s="2">
+        <v>112749</v>
+      </c>
+      <c r="C40" s="2">
+        <v>233</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2">
-        <v>20140514</v>
-      </c>
-      <c r="B35" s="6">
-        <v>132748</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B41" s="2">
+        <v>112750</v>
+      </c>
+      <c r="C41" s="2">
         <v>236</v>
       </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>11988556686</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2">
-        <v>20140514</v>
-      </c>
-      <c r="B36" s="7">
-        <v>132819</v>
-      </c>
-      <c r="C36" s="7">
-        <v>233</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>11988556686</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>11923428109</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B42" s="3">
+        <v>122747</v>
+      </c>
+      <c r="C42" s="3">
+        <v>200</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2">
-        <v>20140514</v>
-      </c>
-      <c r="B37" s="7">
-        <v>132825</v>
-      </c>
-      <c r="C37" s="7">
-        <v>234</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
         <v>11988556686</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B43" s="3">
+        <v>122748</v>
+      </c>
+      <c r="C43" s="3">
+        <v>195</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2">
-        <f>A26+1</f>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <f t="shared" si="3"/>
         <v>20140515</v>
       </c>
-      <c r="B38" s="3">
-        <v>112747</v>
-      </c>
-      <c r="C38" s="3">
-        <v>235</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="B44" s="4">
+        <v>122749</v>
+      </c>
+      <c r="C44" s="4">
+        <v>216</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2">
-        <f>A27+1</f>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <f t="shared" si="3"/>
         <v>20140515</v>
       </c>
-      <c r="B39" s="3">
-        <v>112748</v>
-      </c>
-      <c r="C39" s="3">
-        <v>234</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="B45" s="4">
+        <v>122750</v>
+      </c>
+      <c r="C45" s="4">
+        <v>215</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2">
-        <f>A28+1</f>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
         <v>20140515</v>
       </c>
-      <c r="B40" s="3">
-        <v>112749</v>
-      </c>
-      <c r="C40" s="3">
-        <v>233</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="B46" s="5">
+        <v>132747</v>
+      </c>
+      <c r="C46" s="5">
+        <v>235</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2">
-        <f>A29+1</f>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
         <v>20140515</v>
       </c>
-      <c r="B41" s="3">
-        <v>112750</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B47" s="5">
+        <v>132748</v>
+      </c>
+      <c r="C47" s="5">
         <v>236</v>
       </c>
-      <c r="D41" s="3">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2">
-        <f>A30+1</f>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <f t="shared" si="3"/>
         <v>20140515</v>
       </c>
-      <c r="B42" s="4">
-        <v>122747</v>
-      </c>
-      <c r="C42" s="4">
-        <v>200</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
+      <c r="B48" s="6">
+        <v>132819</v>
+      </c>
+      <c r="C48" s="6">
+        <v>233</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
         <v>11923428109</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>11988556686</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <f t="shared" si="3"/>
+        <v>20140515</v>
+      </c>
+      <c r="B49" s="6">
+        <v>132825</v>
+      </c>
+      <c r="C49" s="6">
+        <v>234</v>
+      </c>
+      <c r="D49" s="6">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
+        <v>11923428109</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
         <v>11988556686</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2">
-        <f>A31+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B43" s="4">
-        <v>122748</v>
-      </c>
-      <c r="C43" s="4">
-        <v>195</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="2">
-        <f>A32+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B44" s="5">
-        <v>122749</v>
-      </c>
-      <c r="C44" s="5">
-        <v>216</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="2">
-        <f>A33+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B45" s="5">
-        <v>122750</v>
-      </c>
-      <c r="C45" s="5">
-        <v>215</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="2">
-        <f>A34+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B46" s="6">
-        <v>132747</v>
-      </c>
-      <c r="C46" s="6">
-        <v>235</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2">
-        <f>A35+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B47" s="6">
-        <v>132748</v>
-      </c>
-      <c r="C47" s="6">
-        <v>236</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2">
-        <f>A36+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B48" s="7">
-        <v>132819</v>
-      </c>
-      <c r="C48" s="7">
-        <v>233</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2">
-        <f>A37+1</f>
-        <v>20140515</v>
-      </c>
-      <c r="B49" s="7">
-        <v>132825</v>
-      </c>
-      <c r="C49" s="7">
-        <v>234</v>
-      </c>
-      <c r="D49" s="7">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="0"/>
-        <v>11923428109</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="1"/>
-        <v>11988556686</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="7" t="s">
+      <c r="G49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2813,7 +2844,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <f>A50+1</f>
+        <f t="shared" ref="A52:A69" si="4">A50+1</f>
         <v>20150102</v>
       </c>
       <c r="B52">
@@ -2855,7 +2886,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <f>A51+1</f>
+        <f t="shared" si="4"/>
         <v>20150102</v>
       </c>
       <c r="B53">
@@ -2897,7 +2928,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <f>A52+1</f>
+        <f t="shared" si="4"/>
         <v>20150103</v>
       </c>
       <c r="B54">
@@ -2939,7 +2970,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <f>A53+1</f>
+        <f t="shared" si="4"/>
         <v>20150103</v>
       </c>
       <c r="B55">
@@ -2981,7 +3012,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <f>A54+1</f>
+        <f t="shared" si="4"/>
         <v>20150104</v>
       </c>
       <c r="B56">
@@ -3023,7 +3054,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
-        <f>A55+1</f>
+        <f t="shared" si="4"/>
         <v>20150104</v>
       </c>
       <c r="B57">
@@ -3065,7 +3096,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <f>A56+1</f>
+        <f t="shared" si="4"/>
         <v>20150105</v>
       </c>
       <c r="B58">
@@ -3107,7 +3138,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <f>A57+1</f>
+        <f t="shared" si="4"/>
         <v>20150105</v>
       </c>
       <c r="B59">
@@ -3149,7 +3180,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <f>A58+1</f>
+        <f t="shared" si="4"/>
         <v>20150106</v>
       </c>
       <c r="B60">
@@ -3191,7 +3222,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <f>A59+1</f>
+        <f t="shared" si="4"/>
         <v>20150106</v>
       </c>
       <c r="B61">
@@ -3233,7 +3264,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
-        <f>A60+1</f>
+        <f t="shared" si="4"/>
         <v>20150107</v>
       </c>
       <c r="B62">
@@ -3275,7 +3306,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <f>A61+1</f>
+        <f t="shared" si="4"/>
         <v>20150107</v>
       </c>
       <c r="B63">
@@ -3317,7 +3348,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <f>A62+1</f>
+        <f t="shared" si="4"/>
         <v>20150108</v>
       </c>
       <c r="B64">
@@ -3359,7 +3390,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <f>A63+1</f>
+        <f t="shared" si="4"/>
         <v>20150108</v>
       </c>
       <c r="B65">
@@ -3401,7 +3432,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <f>A64+1</f>
+        <f t="shared" si="4"/>
         <v>20150109</v>
       </c>
       <c r="B66">
@@ -3443,7 +3474,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <f>A65+1</f>
+        <f t="shared" si="4"/>
         <v>20150109</v>
       </c>
       <c r="B67">
@@ -3485,7 +3516,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
-        <f>A66+1</f>
+        <f t="shared" si="4"/>
         <v>20150110</v>
       </c>
       <c r="B68">
@@ -3527,7 +3558,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
-        <f>A67+1</f>
+        <f t="shared" si="4"/>
         <v>20150110</v>
       </c>
       <c r="B69">
